--- a/Documentation/Design Documents/Responsibilities.xlsx
+++ b/Documentation/Design Documents/Responsibilities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -451,6 +451,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">

--- a/Documentation/Design Documents/Responsibilities.xlsx
+++ b/Documentation/Design Documents/Responsibilities.xlsx
@@ -113,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +399,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -438,6 +439,9 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">

--- a/Documentation/Design Documents/Responsibilities.xlsx
+++ b/Documentation/Design Documents/Responsibilities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpowe_000\GitHub\CapStone\Documentation\Design Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\CapStone\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,16 +399,16 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -443,7 +443,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -451,7 +451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -459,12 +459,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -472,25 +472,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C11" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
